--- a/01_master.xlsx
+++ b/01_master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-nashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_C\@GitHub\ExcelvlookupToOtherBookSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>1-1</t>
     <phoneticPr fontId="1"/>
@@ -181,7 +181,11 @@
     <t>10-5</t>
   </si>
   <si>
-    <t>444</t>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -189,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +206,22 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -228,14 +248,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +544,7 @@
   <dimension ref="B3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,202 +553,202 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
